--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="44">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demolition_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_building_rate</t>
   </si>
 </sst>
 </file>
@@ -167,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,12 +183,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,7 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,14 +256,14 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,7 +967,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>22</v>
@@ -1124,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>28</v>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">exponential</t>
+    <t xml:space="preserve">linear</t>
   </si>
   <si>
     <t xml:space="preserve">restoration_deep_amb</t>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linear</t>
   </si>
   <si>
     <t xml:space="preserve">0.7, 0.8, 1, 0.4</t>
@@ -256,10 +253,10 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
@@ -347,10 +344,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +355,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
@@ -376,7 +373,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -387,7 +384,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
@@ -405,7 +402,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -416,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
@@ -434,7 +431,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -445,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -463,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.3</v>
@@ -474,25 +471,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -503,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>12</v>
@@ -521,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -532,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>12</v>
@@ -550,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -561,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
@@ -579,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -590,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>11</v>
@@ -608,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -619,25 +616,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -648,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>14</v>
@@ -657,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>11</v>
@@ -666,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -677,25 +674,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -706,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>13</v>
@@ -724,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
@@ -735,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>11</v>
@@ -753,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -764,10 +761,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>41</v>
@@ -782,15 +779,15 @@
         <v>33</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
@@ -802,24 +799,24 @@
         <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
@@ -831,16 +828,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0.5</v>
@@ -848,10 +845,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>12</v>
@@ -869,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -877,10 +874,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>12</v>
@@ -898,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -906,10 +903,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>12</v>
@@ -927,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -935,10 +932,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>11</v>
@@ -956,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -964,28 +961,28 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -993,10 +990,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>12</v>
@@ -1014,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
@@ -1022,10 +1019,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>12</v>
@@ -1043,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
@@ -1051,10 +1048,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>12</v>
@@ -1072,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0</v>
@@ -1080,10 +1077,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>11</v>
@@ -1101,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>0</v>
@@ -1109,28 +1106,28 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>14</v>
@@ -1150,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>11</v>
@@ -1159,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>0</v>
@@ -1167,28 +1164,28 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
@@ -1196,16 +1193,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>13</v>
@@ -1217,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0</v>
@@ -1225,10 +1222,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>11</v>
@@ -1246,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
@@ -1254,10 +1251,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>46</v>
@@ -1275,7 +1272,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0</v>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -52,6 +52,9 @@
     <t xml:space="preserve">linear</t>
   </si>
   <si>
+    <t xml:space="preserve">0.7, 0.8, 1, 0.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">restoration_deep_amb</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7, 0.8, 1, 0.4</t>
   </si>
   <si>
     <t xml:space="preserve">restoration_sfh</t>
@@ -253,10 +253,10 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
@@ -317,8 +317,8 @@
       <c r="H2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,28 +326,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,19 +358,19 @@
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>9</v>
@@ -387,19 +387,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>9</v>
@@ -416,19 +416,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>9</v>
@@ -445,19 +445,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>9</v>
@@ -503,19 +503,19 @@
         <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>9</v>
@@ -532,19 +532,19 @@
         <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>9</v>
@@ -561,19 +561,19 @@
         <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>9</v>
@@ -590,19 +590,19 @@
         <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>9</v>
@@ -648,19 +648,19 @@
         <v>30</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>9</v>
@@ -677,7 +677,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>31</v>
@@ -706,19 +706,19 @@
         <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>9</v>
@@ -735,19 +735,19 @@
         <v>35</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>9</v>
@@ -819,13 +819,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>41</v>
@@ -851,19 +851,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>9</v>
@@ -880,19 +880,19 @@
         <v>17</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>9</v>
@@ -909,19 +909,19 @@
         <v>18</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>9</v>
@@ -938,19 +938,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>9</v>
@@ -996,19 +996,19 @@
         <v>22</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>9</v>
@@ -1025,19 +1025,19 @@
         <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>9</v>
@@ -1054,19 +1054,19 @@
         <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>9</v>
@@ -1083,19 +1083,19 @@
         <v>25</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>9</v>
@@ -1141,19 +1141,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>9</v>
@@ -1170,7 +1170,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>31</v>
@@ -1199,19 +1199,19 @@
         <v>33</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>9</v>
@@ -1228,19 +1228,19 @@
         <v>35</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>9</v>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="42">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">restoration_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
   </si>
   <si>
     <t xml:space="preserve">0.015</t>
@@ -252,11 +249,11 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="256" zoomScaleNormal="256" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
@@ -299,26 +296,26 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,25 +323,25 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -355,25 +352,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -384,25 +381,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -413,25 +410,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -442,25 +439,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.3</v>
@@ -471,25 +468,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -500,25 +497,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -529,25 +526,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -558,25 +555,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -587,25 +584,25 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -616,25 +613,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -645,25 +642,25 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -674,25 +671,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -703,25 +700,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
@@ -732,25 +729,25 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -761,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45.8</v>
@@ -779,65 +776,65 @@
         <v>33</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0.5</v>
@@ -845,28 +842,28 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -874,28 +871,28 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -903,28 +900,28 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -932,28 +929,28 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -961,28 +958,28 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -990,28 +987,28 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
@@ -1019,28 +1016,28 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
@@ -1048,28 +1045,28 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0</v>
@@ -1077,28 +1074,28 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>0</v>
@@ -1106,28 +1103,28 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
@@ -1135,28 +1132,28 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>0</v>
@@ -1164,28 +1161,28 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
@@ -1193,28 +1190,28 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="E33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0</v>
@@ -1222,28 +1219,28 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
@@ -1251,10 +1248,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>46</v>
@@ -1272,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0</v>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -249,11 +249,11 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="256" zoomScaleNormal="256" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="187" zoomScaleNormal="187" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7, 0.8, 1, 0.4</t>
   </si>
   <si>
     <t xml:space="preserve">restoration_deep_amb</t>
@@ -253,7 +250,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
@@ -297,7 +294,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -314,8 +311,8 @@
       <c r="H2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,22 +320,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>8</v>
@@ -352,22 +349,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>8</v>
@@ -381,22 +378,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>8</v>
@@ -410,22 +407,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>8</v>
@@ -439,28 +436,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,22 +465,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>8</v>
@@ -497,22 +494,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
@@ -526,22 +523,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -555,22 +552,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>8</v>
@@ -584,22 +581,22 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>8</v>
@@ -613,22 +610,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>8</v>
@@ -642,22 +639,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -671,22 +668,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -700,22 +697,22 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -729,22 +726,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -758,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45.8</v>
@@ -779,12 +776,12 @@
         <v>8</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
@@ -796,42 +793,42 @@
         <v>7</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -842,25 +839,25 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>8</v>
@@ -871,25 +868,25 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>8</v>
@@ -900,25 +897,25 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>8</v>
@@ -929,25 +926,25 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>8</v>
@@ -958,25 +955,25 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>8</v>
@@ -987,25 +984,25 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>8</v>
@@ -1016,25 +1013,25 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>8</v>
@@ -1045,25 +1042,25 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>8</v>
@@ -1074,25 +1071,25 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>8</v>
@@ -1103,25 +1100,25 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>8</v>
@@ -1132,25 +1129,25 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -1161,25 +1158,25 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -1190,25 +1187,25 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="E33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -1219,25 +1216,25 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -1248,10 +1245,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>46</v>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="187" zoomScaleNormal="187" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +294,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="40">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -40,12 +40,12 @@
     <t xml:space="preserve">restoration_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">0.015</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
     <t xml:space="preserve">linear</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">0.001</t>
   </si>
   <si>
+    <t xml:space="preserve">new_building_deep_amb</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_building_share_sfh</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
-    <t xml:space="preserve">new_building_share_ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">living_space_pc</t>
   </si>
   <si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">sme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025</t>
   </si>
   <si>
     <t xml:space="preserve">0.5, 0.3, 0.2, 0.2</t>
@@ -244,13 +241,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="187" zoomScaleNormal="187" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
@@ -293,8 +290,8 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.5</v>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -467,8 +464,8 @@
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0.1</v>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>19</v>
@@ -642,19 +639,19 @@
         <v>28</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>8</v>
@@ -668,22 +665,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>8</v>
@@ -700,19 +697,19 @@
         <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>8</v>
@@ -726,22 +723,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>8</v>
@@ -790,22 +787,22 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,13 +819,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>8</v>
@@ -1135,19 +1132,19 @@
         <v>28</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>8</v>
@@ -1161,22 +1158,22 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>8</v>
@@ -1193,19 +1190,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>8</v>
@@ -1219,22 +1216,22 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>8</v>
@@ -1272,10 +1269,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/input/parameter_scenarios.xlsx
+++ b/input/parameter_scenarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="40">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">restoration_rate</t>
   </si>
   <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
@@ -127,19 +130,16 @@
     <t xml:space="preserve">living_space_pc</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5, 0.3, 0.2, 0.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">sme</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5, 0.3, 0.2, 0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff</t>
   </si>
 </sst>
 </file>
@@ -243,11 +243,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="12.41"/>
@@ -294,19 +294,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0</v>
@@ -317,25 +317,25 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -346,25 +346,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -375,25 +375,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -404,25 +404,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -433,25 +433,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -520,25 +520,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -549,25 +549,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -578,25 +578,25 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -607,25 +607,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -636,25 +636,25 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -665,25 +665,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -694,25 +694,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
@@ -723,25 +723,25 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45.8</v>
@@ -770,10 +770,10 @@
         <v>33</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,26 +783,26 @@
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>0.5</v>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,28 +810,28 @@
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,25 +839,25 @@
         <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -897,25 +897,25 @@
         <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -926,25 +926,25 @@
         <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -955,25 +955,25 @@
         <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -984,25 +984,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
@@ -1013,25 +1013,25 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
@@ -1042,25 +1042,25 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0</v>
@@ -1071,25 +1071,25 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>0</v>
@@ -1158,25 +1158,25 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0</v>
@@ -1216,25 +1216,25 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>41</v>
@@ -1263,9 +1263,502 @@
         <v>33</v>
       </c>
       <c r="H35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
